--- a/input/24/pre-assigned.xlsx
+++ b/input/24/pre-assigned.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,18 +436,21 @@
         <v>Salle</v>
       </c>
       <c r="K1" t="str">
-        <v>Marqueur 1</v>
+        <v>Responsable du match</v>
       </c>
       <c r="L1" t="str">
-        <v>Marqueur 2</v>
+        <v>Marqueur principal</v>
       </c>
       <c r="M1" t="str">
-        <v>Téléphone marqueur 1</v>
+        <v>Tél. marqueur principal</v>
       </c>
       <c r="N1" t="str">
-        <v>Téléphone marqueur 2</v>
+        <v>Marqueur assistant</v>
       </c>
       <c r="O1" t="str">
+        <v>Tél. marqueur assistant</v>
+      </c>
+      <c r="P1" t="str">
         <v>Commentaire</v>
       </c>
     </row>
@@ -494,6 +497,9 @@
       <c r="N2" t="str">
         <v/>
       </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -878,7 +884,7 @@
       <c r="J14" t="str">
         <v>Salle omnisports de Grand-Vennes 1</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <v>2 matchs en 2 sets - 362298 / 362277</v>
       </c>
     </row>
@@ -2385,7 +2391,7 @@
       <c r="J61" t="str">
         <v>Salle omnisports de Grand-Vennes 1</v>
       </c>
-      <c r="O61" t="str">
+      <c r="P61" t="str">
         <v>2 matchs en 2 sets - 362272 / 362293</v>
       </c>
     </row>
@@ -2775,7 +2781,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O73"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P73"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input/24/pre-assigned.xlsx
+++ b/input/24/pre-assigned.xlsx
@@ -406,37 +406,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>UID</v>
+      </c>
+      <c r="B1" t="str">
         <v># Match</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>H/F</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>CL</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Ligue</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Jour</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Date/heure de début du match</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Club recevant</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Equipe recevante</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Equipe visiteuse</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Salle</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Responsable du match</v>
       </c>
       <c r="L1" t="str">
         <v>Marqueur principal</v>
@@ -455,38 +455,38 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2">
         <v>361880</v>
       </c>
-      <c r="B2" t="str">
-        <v>F</v>
-      </c>
       <c r="C2" t="str">
+        <v>F</v>
+      </c>
+      <c r="D2" t="str">
         <v>U23</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E2" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="F2" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G2" s="1">
         <v>45555.80208332176</v>
       </c>
-      <c r="G2" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H2" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I2" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <v>Aigle U23F2</v>
       </c>
-      <c r="J2" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K2" t="str">
-        <v/>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -502,386 +502,386 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="B3">
         <v>361884</v>
       </c>
-      <c r="B3" t="str">
-        <v>F</v>
-      </c>
       <c r="C3" t="str">
+        <v>F</v>
+      </c>
+      <c r="D3" t="str">
         <v>U23</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>mar.</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>45559.80208332176</v>
       </c>
-      <c r="G3" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H3" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I3" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <v>Yverdon II U23F2</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="B4">
         <v>361134</v>
       </c>
-      <c r="B4" t="str">
-        <v>F</v>
-      </c>
       <c r="C4" t="str">
+        <v>F</v>
+      </c>
+      <c r="D4" t="str">
         <v>2L</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>jeu.</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>45561.875</v>
       </c>
-      <c r="G4" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H4" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I4" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>Sainte-Croix I F2</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="B5">
         <v>361976</v>
       </c>
-      <c r="B5" t="str">
-        <v>F</v>
-      </c>
       <c r="C5" t="str">
+        <v>F</v>
+      </c>
+      <c r="D5" t="str">
         <v>U20</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E5" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G5" s="1">
         <v>45562.80208332176</v>
       </c>
-      <c r="G5" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H5" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I5" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>Sainte-Croix U20F</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="B6">
         <v>361554</v>
       </c>
-      <c r="B6" t="str">
-        <v>H</v>
-      </c>
       <c r="C6" t="str">
+        <v>H</v>
+      </c>
+      <c r="D6" t="str">
         <v>2L</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E6" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G6" s="1">
         <v>45562.854166666664</v>
       </c>
-      <c r="G6" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H6" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I6" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <v>Sugnens-Cugy I M2</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="B7">
         <v>361740</v>
       </c>
-      <c r="B7" t="str">
-        <v>H</v>
-      </c>
       <c r="C7" t="str">
+        <v>H</v>
+      </c>
+      <c r="D7" t="str">
         <v>4L</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E7" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G7" s="1">
         <v>45562.875</v>
       </c>
-      <c r="G7" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H7" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I7" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <v>La Tour M4</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="B8">
         <v>361890</v>
       </c>
-      <c r="B8" t="str">
-        <v>F</v>
-      </c>
       <c r="C8" t="str">
+        <v>F</v>
+      </c>
+      <c r="D8" t="str">
         <v>U23</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E8" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="F8" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G8" s="1">
         <v>45569.80208332176</v>
       </c>
-      <c r="G8" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H8" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I8" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>Montreux U23F2</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="B9">
         <v>361144</v>
       </c>
-      <c r="B9" t="str">
-        <v>F</v>
-      </c>
       <c r="C9" t="str">
+        <v>F</v>
+      </c>
+      <c r="D9" t="str">
         <v>2L</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E9" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="F9" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G9" s="1">
         <v>45569.854166666664</v>
       </c>
-      <c r="G9" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H9" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I9" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <v>Les Cèdres F2</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="B10">
         <v>361338</v>
       </c>
-      <c r="B10" t="str">
-        <v>F</v>
-      </c>
       <c r="C10" t="str">
+        <v>F</v>
+      </c>
+      <c r="D10" t="str">
         <v>4L</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E10" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="F10" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G10" s="1">
         <v>45569.875</v>
       </c>
-      <c r="G10" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H10" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I10" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>Ecublens II F4</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="B11">
         <v>361892</v>
       </c>
-      <c r="B11" t="str">
-        <v>F</v>
-      </c>
       <c r="C11" t="str">
+        <v>F</v>
+      </c>
+      <c r="D11" t="str">
         <v>U23</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E11" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="F11" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G11" s="1">
         <v>45576.80208332176</v>
       </c>
-      <c r="G11" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H11" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I11" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>BOPP/Froidev U23F2</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="B12">
         <v>361564</v>
       </c>
-      <c r="B12" t="str">
-        <v>H</v>
-      </c>
       <c r="C12" t="str">
+        <v>H</v>
+      </c>
+      <c r="D12" t="str">
         <v>2L</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E12" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G12" s="1">
         <v>45576.854166666664</v>
       </c>
-      <c r="G12" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H12" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I12" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>La Côte I M2</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="B13">
         <v>361751</v>
       </c>
-      <c r="B13" t="str">
-        <v>H</v>
-      </c>
       <c r="C13" t="str">
+        <v>H</v>
+      </c>
+      <c r="D13" t="str">
         <v>4L</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E13" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G13" s="1">
         <v>45576.875</v>
       </c>
-      <c r="G13" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H13" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I13" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>Montreux II M4</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="B14">
         <v>362298</v>
       </c>
-      <c r="B14" t="str">
-        <v>H</v>
-      </c>
       <c r="C14" t="str">
+        <v>H</v>
+      </c>
+      <c r="D14" t="str">
         <v>U18</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <v>2024 | U18</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <v>sam.</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>45591.416666666664</v>
       </c>
-      <c r="G14" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H14" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I14" t="str">
         <v>Lausanne U18G</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>Littoral U18G</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <v>Salle omnisports de Grand-Vennes 1</v>
       </c>
       <c r="P14" t="str">
@@ -889,1506 +889,1506 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="B15">
         <v>353295</v>
       </c>
-      <c r="B15" t="str">
-        <v>H</v>
-      </c>
       <c r="C15" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D15" t="str">
         <v>1L</v>
       </c>
       <c r="E15" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F15" t="str">
         <v>sam.</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>45591.625</v>
       </c>
-      <c r="G15" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H15" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I15" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J15" t="str">
         <v>VBC Cheseaux</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="B16">
         <v>361348</v>
       </c>
-      <c r="B16" t="str">
-        <v>F</v>
-      </c>
       <c r="C16" t="str">
+        <v>F</v>
+      </c>
+      <c r="D16" t="str">
         <v>4L</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <v>mar.</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>45594.854166666664</v>
       </c>
-      <c r="G16" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H16" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I16" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>Pailly F4</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="B17">
         <v>362054</v>
       </c>
-      <c r="B17" t="str">
-        <v>F</v>
-      </c>
       <c r="C17" t="str">
+        <v>F</v>
+      </c>
+      <c r="D17" t="str">
         <v>U20</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E17" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G17" s="1">
         <v>45597.80208332176</v>
       </c>
-      <c r="G17" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H17" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I17" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>BOPP/Froidev U20F</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="B18">
         <v>353303</v>
       </c>
-      <c r="B18" t="str">
-        <v>H</v>
-      </c>
       <c r="C18" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D18" t="str">
         <v>1L</v>
       </c>
       <c r="E18" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F18" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F18" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G18" s="1">
         <v>45597.854166666664</v>
       </c>
-      <c r="G18" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H18" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I18" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J18" t="str">
         <v>VBC Bulle</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="B19">
         <v>361154</v>
       </c>
-      <c r="B19" t="str">
-        <v>F</v>
-      </c>
       <c r="C19" t="str">
+        <v>F</v>
+      </c>
+      <c r="D19" t="str">
         <v>2L</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E19" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="F19" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G19" s="1">
         <v>45597.875</v>
       </c>
-      <c r="G19" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H19" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I19" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>Le Mont I F2</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="B20">
         <v>362000</v>
       </c>
-      <c r="B20" t="str">
-        <v>F</v>
-      </c>
       <c r="C20" t="str">
+        <v>F</v>
+      </c>
+      <c r="D20" t="str">
         <v>U20</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E20" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="F20" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G20" s="1">
         <v>45604.80208332176</v>
       </c>
-      <c r="G20" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H20" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I20" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>La Côte U20F</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="B21">
         <v>361574</v>
       </c>
-      <c r="B21" t="str">
-        <v>H</v>
-      </c>
       <c r="C21" t="str">
+        <v>H</v>
+      </c>
+      <c r="D21" t="str">
         <v>2L</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E21" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="F21" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G21" s="1">
         <v>45604.854166666664</v>
       </c>
-      <c r="G21" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H21" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I21" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>Bussigny I M2</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="B22">
         <v>361760</v>
       </c>
-      <c r="B22" t="str">
-        <v>H</v>
-      </c>
       <c r="C22" t="str">
+        <v>H</v>
+      </c>
+      <c r="D22" t="str">
         <v>4L</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E22" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="F22" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G22" s="1">
         <v>45604.875</v>
       </c>
-      <c r="G22" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H22" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I22" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <v>La Côte IV M4</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="B23">
         <v>361163</v>
       </c>
-      <c r="B23" t="str">
-        <v>F</v>
-      </c>
       <c r="C23" t="str">
+        <v>F</v>
+      </c>
+      <c r="D23" t="str">
         <v>2L</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E23" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="F23" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G23" s="1">
         <v>45611.854166666664</v>
       </c>
-      <c r="G23" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H23" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I23" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <v>Lutry-Lavaux I F2</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="B24">
         <v>361357</v>
       </c>
-      <c r="B24" t="str">
-        <v>F</v>
-      </c>
       <c r="C24" t="str">
+        <v>F</v>
+      </c>
+      <c r="D24" t="str">
         <v>4L</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E24" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="F24" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G24" s="1">
         <v>45611.875</v>
       </c>
-      <c r="G24" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H24" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I24" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <v>Cossonay II F4</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="B25">
         <v>361771</v>
       </c>
-      <c r="B25" t="str">
-        <v>H</v>
-      </c>
       <c r="C25" t="str">
+        <v>H</v>
+      </c>
+      <c r="D25" t="str">
         <v>4L</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E25" t="str">
+      <c r="F25" t="str">
         <v>mar.</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>45615.854166666664</v>
       </c>
-      <c r="G25" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H25" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I25" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <v>La Côte III M4</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="B26">
         <v>361909</v>
       </c>
-      <c r="B26" t="str">
-        <v>F</v>
-      </c>
       <c r="C26" t="str">
+        <v>F</v>
+      </c>
+      <c r="D26" t="str">
         <v>U23</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E26" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="F26" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G26" s="1">
         <v>45618.80208332176</v>
       </c>
-      <c r="G26" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H26" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I26" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <v>Yverdon II U23F2</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="B27">
         <v>353318</v>
       </c>
-      <c r="B27" t="str">
-        <v>H</v>
-      </c>
       <c r="C27" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D27" t="str">
         <v>1L</v>
       </c>
       <c r="E27" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F27" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F27" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G27" s="1">
         <v>45618.854166666664</v>
       </c>
-      <c r="G27" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H27" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I27" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J27" t="str">
         <v>Bienne Volleyboys</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="B28">
         <v>361583</v>
       </c>
-      <c r="B28" t="str">
-        <v>H</v>
-      </c>
       <c r="C28" t="str">
+        <v>H</v>
+      </c>
+      <c r="D28" t="str">
         <v>2L</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E28" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="F28" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G28" s="1">
         <v>45618.875</v>
       </c>
-      <c r="G28" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H28" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I28" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <v>Lutry-Lavaux II M2</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="B29">
         <v>362019</v>
       </c>
-      <c r="B29" t="str">
-        <v>F</v>
-      </c>
       <c r="C29" t="str">
+        <v>F</v>
+      </c>
+      <c r="D29" t="str">
         <v>U20</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E29" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="F29" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G29" s="1">
         <v>45625.80208332176</v>
       </c>
-      <c r="G29" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H29" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I29" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <v>Montreux U20F</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="B30">
         <v>361173</v>
       </c>
-      <c r="B30" t="str">
-        <v>F</v>
-      </c>
       <c r="C30" t="str">
+        <v>F</v>
+      </c>
+      <c r="D30" t="str">
         <v>2L</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E30" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="F30" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G30" s="1">
         <v>45625.854166666664</v>
       </c>
-      <c r="G30" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H30" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I30" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <v>Sugnens-Cugy I F2</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="B31">
         <v>361365</v>
       </c>
-      <c r="B31" t="str">
-        <v>F</v>
-      </c>
       <c r="C31" t="str">
+        <v>F</v>
+      </c>
+      <c r="D31" t="str">
         <v>4L</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E31" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="F31" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G31" s="1">
         <v>45625.875</v>
       </c>
-      <c r="G31" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H31" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I31" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <v>Epalinges III F4</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="B32">
         <v>361916</v>
       </c>
-      <c r="B32" t="str">
-        <v>F</v>
-      </c>
       <c r="C32" t="str">
+        <v>F</v>
+      </c>
+      <c r="D32" t="str">
         <v>U23</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E32" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="F32" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G32" s="1">
         <v>45632.80208332176</v>
       </c>
-      <c r="G32" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H32" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I32" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <v>Ecublens U23F2</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="B33">
         <v>361591</v>
       </c>
-      <c r="B33" t="str">
-        <v>H</v>
-      </c>
       <c r="C33" t="str">
+        <v>H</v>
+      </c>
+      <c r="D33" t="str">
         <v>2L</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E33" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="F33" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G33" s="1">
         <v>45632.854166666664</v>
       </c>
-      <c r="G33" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H33" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I33" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <v>Littoral I M2</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="B34">
         <v>361780</v>
       </c>
-      <c r="B34" t="str">
-        <v>H</v>
-      </c>
       <c r="C34" t="str">
+        <v>H</v>
+      </c>
+      <c r="D34" t="str">
         <v>4L</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E34" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="F34" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G34" s="1">
         <v>45632.875</v>
       </c>
-      <c r="G34" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H34" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I34" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <v>Haute-Broye M4</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="B35">
         <v>361595</v>
       </c>
-      <c r="B35" t="str">
-        <v>H</v>
-      </c>
       <c r="C35" t="str">
+        <v>H</v>
+      </c>
+      <c r="D35" t="str">
         <v>2L</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E35" t="str">
+      <c r="F35" t="str">
         <v>mar.</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>45636.854166666664</v>
       </c>
-      <c r="G35" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H35" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I35" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <v>Orbe M2</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="B36">
         <v>362030</v>
       </c>
-      <c r="B36" t="str">
-        <v>F</v>
-      </c>
       <c r="C36" t="str">
+        <v>F</v>
+      </c>
+      <c r="D36" t="str">
         <v>U20</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E36" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="F36" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G36" s="1">
         <v>45639.80208332176</v>
       </c>
-      <c r="G36" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H36" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I36" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <v>Ecublens U20F</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="B37">
         <v>353336</v>
       </c>
-      <c r="B37" t="str">
-        <v>H</v>
-      </c>
       <c r="C37" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D37" t="str">
         <v>1L</v>
       </c>
       <c r="E37" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F37" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F37" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G37" s="1">
         <v>45639.854166666664</v>
       </c>
-      <c r="G37" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H37" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I37" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J37" t="str">
         <v>Groupement Sportif du CERN</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="B38">
         <v>361785</v>
       </c>
-      <c r="B38" t="str">
-        <v>H</v>
-      </c>
       <c r="C38" t="str">
+        <v>H</v>
+      </c>
+      <c r="D38" t="str">
         <v>4L</v>
       </c>
-      <c r="D38" t="str">
+      <c r="E38" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E38" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="F38" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G38" s="1">
         <v>45639.875</v>
       </c>
-      <c r="G38" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H38" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I38" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <v>Bussigny II M4</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="B39">
         <v>361730</v>
       </c>
-      <c r="B39" t="str">
-        <v>H</v>
-      </c>
       <c r="C39" t="str">
+        <v>H</v>
+      </c>
+      <c r="D39" t="str">
         <v>4L</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E39" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="F39" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G39" s="1">
         <v>45646.854166666664</v>
       </c>
-      <c r="G39" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H39" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I39" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <v>Pailly M4</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="B40">
         <v>361964</v>
       </c>
-      <c r="B40" t="str">
-        <v>F</v>
-      </c>
       <c r="C40" t="str">
+        <v>F</v>
+      </c>
+      <c r="D40" t="str">
         <v>U20</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E40" t="str">
+      <c r="F40" t="str">
         <v>sam.</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>45647.416666666664</v>
       </c>
-      <c r="G40" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H40" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I40" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <v>Orbe U20F</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="B41">
         <v>361182</v>
       </c>
-      <c r="B41" t="str">
-        <v>F</v>
-      </c>
       <c r="C41" t="str">
+        <v>F</v>
+      </c>
+      <c r="D41" t="str">
         <v>2L</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E41" t="str">
+      <c r="F41" t="str">
         <v>sam.</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>45647.541666666664</v>
       </c>
-      <c r="G41" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H41" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I41" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <v>Cossonay I F2</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="B42">
         <v>353346</v>
       </c>
-      <c r="B42" t="str">
-        <v>H</v>
-      </c>
       <c r="C42" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D42" t="str">
         <v>1L</v>
       </c>
       <c r="E42" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F42" t="str">
         <v>sam.</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>45647.625</v>
       </c>
-      <c r="G42" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H42" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I42" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J42" t="str">
         <v>Colombier Volley</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="B43">
         <v>361193</v>
       </c>
-      <c r="B43" t="str">
-        <v>F</v>
-      </c>
       <c r="C43" t="str">
+        <v>F</v>
+      </c>
+      <c r="D43" t="str">
         <v>2L</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E43" t="str">
+      <c r="F43" t="str">
         <v>mar.</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>45664.854166666664</v>
       </c>
-      <c r="G43" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H43" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I43" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <v>Epalinges II F2</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="B44">
         <v>353351</v>
       </c>
-      <c r="B44" t="str">
-        <v>H</v>
-      </c>
       <c r="C44" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D44" t="str">
         <v>1L</v>
       </c>
       <c r="E44" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F44" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F44" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G44" s="1">
         <v>45667.854166666664</v>
       </c>
-      <c r="G44" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H44" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I44" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J44" t="str">
         <v>VBC Sainte-Croix</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="B45">
         <v>361378</v>
       </c>
-      <c r="B45" t="str">
-        <v>F</v>
-      </c>
       <c r="C45" t="str">
+        <v>F</v>
+      </c>
+      <c r="D45" t="str">
         <v>4L</v>
       </c>
-      <c r="D45" t="str">
+      <c r="E45" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E45" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="F45" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G45" s="1">
         <v>45667.875</v>
       </c>
-      <c r="G45" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H45" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I45" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <v>Orbe II F4</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="B46">
         <v>362042</v>
       </c>
-      <c r="B46" t="str">
-        <v>F</v>
-      </c>
       <c r="C46" t="str">
+        <v>F</v>
+      </c>
+      <c r="D46" t="str">
         <v>U20</v>
       </c>
-      <c r="D46" t="str">
+      <c r="E46" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E46" t="str">
+      <c r="F46" t="str">
         <v>sam.</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>45675.416666666664</v>
       </c>
-      <c r="G46" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H46" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I46" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <v>Cossonay U20F</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="B47">
         <v>361604</v>
       </c>
-      <c r="B47" t="str">
-        <v>H</v>
-      </c>
       <c r="C47" t="str">
+        <v>H</v>
+      </c>
+      <c r="D47" t="str">
         <v>2L</v>
       </c>
-      <c r="D47" t="str">
+      <c r="E47" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E47" t="str">
+      <c r="F47" t="str">
         <v>sam.</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>45675.541666666664</v>
       </c>
-      <c r="G47" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H47" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I47" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <v>Montreux I M2</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="B48">
         <v>353354</v>
       </c>
-      <c r="B48" t="str">
-        <v>H</v>
-      </c>
       <c r="C48" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D48" t="str">
         <v>1L</v>
       </c>
       <c r="E48" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F48" t="str">
         <v>sam.</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>45675.625</v>
       </c>
-      <c r="G48" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H48" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I48" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J48" t="str">
         <v>TV Murten Volleyball</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="B49">
         <v>361388</v>
       </c>
-      <c r="B49" t="str">
-        <v>F</v>
-      </c>
       <c r="C49" t="str">
+        <v>F</v>
+      </c>
+      <c r="D49" t="str">
         <v>4L</v>
       </c>
-      <c r="D49" t="str">
+      <c r="E49" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E49" t="str">
+      <c r="F49" t="str">
         <v>mar.</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>45678.854166666664</v>
       </c>
-      <c r="G49" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H49" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I49" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <v>Le Mont II F4</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="B50">
         <v>362048</v>
       </c>
-      <c r="B50" t="str">
-        <v>F</v>
-      </c>
       <c r="C50" t="str">
+        <v>F</v>
+      </c>
+      <c r="D50" t="str">
         <v>U20</v>
       </c>
-      <c r="D50" t="str">
+      <c r="E50" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E50" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="F50" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G50" s="1">
         <v>45681.80208332176</v>
       </c>
-      <c r="G50" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H50" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I50" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <v>Littoral U20F</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="B51">
         <v>361203</v>
       </c>
-      <c r="B51" t="str">
-        <v>F</v>
-      </c>
       <c r="C51" t="str">
+        <v>F</v>
+      </c>
+      <c r="D51" t="str">
         <v>2L</v>
       </c>
-      <c r="D51" t="str">
+      <c r="E51" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E51" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="F51" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G51" s="1">
         <v>45681.854166666664</v>
       </c>
-      <c r="G51" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H51" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I51" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <v>Montreux I F2</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="B52">
         <v>361935</v>
       </c>
-      <c r="B52" t="str">
-        <v>F</v>
-      </c>
       <c r="C52" t="str">
+        <v>F</v>
+      </c>
+      <c r="D52" t="str">
         <v>U23</v>
       </c>
-      <c r="D52" t="str">
+      <c r="E52" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E52" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="F52" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G52" s="1">
         <v>45688.80208332176</v>
       </c>
-      <c r="G52" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H52" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I52" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <v>Ecublens U23F2</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="B53">
         <v>361614</v>
       </c>
-      <c r="B53" t="str">
-        <v>H</v>
-      </c>
       <c r="C53" t="str">
+        <v>H</v>
+      </c>
+      <c r="D53" t="str">
         <v>2L</v>
       </c>
-      <c r="D53" t="str">
+      <c r="E53" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E53" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="F53" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G53" s="1">
         <v>45688.854166666664</v>
       </c>
-      <c r="G53" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H53" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I53" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <v>LUC III M2</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="B54">
         <v>361805</v>
       </c>
-      <c r="B54" t="str">
-        <v>H</v>
-      </c>
       <c r="C54" t="str">
+        <v>H</v>
+      </c>
+      <c r="D54" t="str">
         <v>4L</v>
       </c>
-      <c r="D54" t="str">
+      <c r="E54" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E54" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="F54" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G54" s="1">
         <v>45688.875</v>
       </c>
-      <c r="G54" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H54" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I54" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <v>Le Mont II M4</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="B55">
         <v>361398</v>
       </c>
-      <c r="B55" t="str">
-        <v>F</v>
-      </c>
       <c r="C55" t="str">
+        <v>F</v>
+      </c>
+      <c r="D55" t="str">
         <v>4L</v>
       </c>
-      <c r="D55" t="str">
+      <c r="E55" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E55" t="str">
+      <c r="F55" t="str">
         <v>mar.</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>45692.854166666664</v>
       </c>
-      <c r="G55" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H55" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I55" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <v>La Tour I F4</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="B56">
         <v>361941</v>
       </c>
-      <c r="B56" t="str">
-        <v>F</v>
-      </c>
       <c r="C56" t="str">
+        <v>F</v>
+      </c>
+      <c r="D56" t="str">
         <v>U23</v>
       </c>
-      <c r="D56" t="str">
+      <c r="E56" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E56" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="F56" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G56" s="1">
         <v>45695.80208332176</v>
       </c>
-      <c r="G56" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H56" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I56" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <v>La Côte U23F2</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="B57">
         <v>353376</v>
       </c>
-      <c r="B57" t="str">
-        <v>H</v>
-      </c>
       <c r="C57" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D57" t="str">
         <v>1L</v>
       </c>
       <c r="E57" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F57" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F57" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G57" s="1">
         <v>45695.854166666664</v>
       </c>
-      <c r="G57" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H57" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I57" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J57" t="str">
         <v>Chênois Genève Volleyball</v>
       </c>
-      <c r="J57" t="str">
+      <c r="K57" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="B58">
         <v>361214</v>
       </c>
-      <c r="B58" t="str">
-        <v>F</v>
-      </c>
       <c r="C58" t="str">
+        <v>F</v>
+      </c>
+      <c r="D58" t="str">
         <v>2L</v>
       </c>
-      <c r="D58" t="str">
+      <c r="E58" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E58" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="F58" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G58" s="1">
         <v>45695.875</v>
       </c>
-      <c r="G58" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H58" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I58" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I58" t="str">
+      <c r="J58" t="str">
         <v>Cheseaux III F2</v>
       </c>
-      <c r="J58" t="str">
+      <c r="K58" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="B59">
         <v>362067</v>
       </c>
-      <c r="B59" t="str">
-        <v>F</v>
-      </c>
       <c r="C59" t="str">
+        <v>F</v>
+      </c>
+      <c r="D59" t="str">
         <v>U20</v>
       </c>
-      <c r="D59" t="str">
+      <c r="E59" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E59" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="F59" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G59" s="1">
         <v>45702.80208332176</v>
       </c>
-      <c r="G59" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H59" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I59" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I59" t="str">
+      <c r="J59" t="str">
         <v>Bussigny U20F</v>
       </c>
-      <c r="J59" t="str">
+      <c r="K59" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="B60">
         <v>361944</v>
       </c>
-      <c r="B60" t="str">
-        <v>F</v>
-      </c>
       <c r="C60" t="str">
+        <v>F</v>
+      </c>
+      <c r="D60" t="str">
         <v>U23</v>
       </c>
-      <c r="D60" t="str">
+      <c r="E60" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E60" t="str">
+      <c r="F60" t="str">
         <v>sam.</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>45703.416666666664</v>
       </c>
-      <c r="G60" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H60" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I60" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I60" t="str">
+      <c r="J60" t="str">
         <v>Cossonay II U23F2</v>
       </c>
-      <c r="J60" t="str">
+      <c r="K60" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="B61">
         <v>362272</v>
       </c>
-      <c r="B61" t="str">
-        <v>H</v>
-      </c>
       <c r="C61" t="str">
+        <v>H</v>
+      </c>
+      <c r="D61" t="str">
         <v>U18</v>
       </c>
-      <c r="D61" t="str">
+      <c r="E61" t="str">
         <v>2024 | U18</v>
       </c>
-      <c r="E61" t="str">
+      <c r="F61" t="str">
         <v>sam.</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>45703.416666666664</v>
       </c>
-      <c r="G61" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H61" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I61" t="str">
         <v>Lausanne U18G</v>
       </c>
-      <c r="I61" t="str">
+      <c r="J61" t="str">
         <v>Bussigny U18G</v>
       </c>
-      <c r="J61" t="str">
+      <c r="K61" t="str">
         <v>Salle omnisports de Grand-Vennes 1</v>
       </c>
       <c r="P61" t="str">
@@ -2396,386 +2396,386 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="B62">
         <v>361816</v>
       </c>
-      <c r="B62" t="str">
-        <v>H</v>
-      </c>
       <c r="C62" t="str">
+        <v>H</v>
+      </c>
+      <c r="D62" t="str">
         <v>4L</v>
       </c>
-      <c r="D62" t="str">
+      <c r="E62" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E62" t="str">
+      <c r="F62" t="str">
         <v>sam.</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>45703.541666666664</v>
       </c>
-      <c r="G62" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H62" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I62" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I62" t="str">
+      <c r="J62" t="str">
         <v>LUC IV M4</v>
       </c>
-      <c r="J62" t="str">
+      <c r="K62" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="B63">
         <v>353382</v>
       </c>
-      <c r="B63" t="str">
-        <v>H</v>
-      </c>
       <c r="C63" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D63" t="str">
         <v>1L</v>
       </c>
       <c r="E63" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F63" t="str">
         <v>sam.</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>45703.625</v>
       </c>
-      <c r="G63" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H63" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I63" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J63" t="str">
         <v>VBC Fully</v>
       </c>
-      <c r="J63" t="str">
+      <c r="K63" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="B64">
         <v>362071</v>
       </c>
-      <c r="B64" t="str">
-        <v>F</v>
-      </c>
       <c r="C64" t="str">
+        <v>F</v>
+      </c>
+      <c r="D64" t="str">
         <v>U20</v>
       </c>
-      <c r="D64" t="str">
+      <c r="E64" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E64" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="F64" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G64" s="1">
         <v>45716.80208332176</v>
       </c>
-      <c r="G64" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H64" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I64" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I64" t="str">
+      <c r="J64" t="str">
         <v>Lutry-Lavaux U20F</v>
       </c>
-      <c r="J64" t="str">
+      <c r="K64" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="B65">
         <v>353390</v>
       </c>
-      <c r="B65" t="str">
-        <v>H</v>
-      </c>
       <c r="C65" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D65" t="str">
         <v>1L</v>
       </c>
       <c r="E65" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F65" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F65" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G65" s="1">
         <v>45716.854166666664</v>
       </c>
-      <c r="G65" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H65" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I65" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J65" t="str">
         <v>Meyrin VBC</v>
       </c>
-      <c r="J65" t="str">
+      <c r="K65" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="B66">
         <v>361406</v>
       </c>
-      <c r="B66" t="str">
-        <v>F</v>
-      </c>
       <c r="C66" t="str">
+        <v>F</v>
+      </c>
+      <c r="D66" t="str">
         <v>4L</v>
       </c>
-      <c r="D66" t="str">
+      <c r="E66" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E66" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="F66" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G66" s="1">
         <v>45716.875</v>
       </c>
-      <c r="G66" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H66" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I66" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I66" t="str">
+      <c r="J66" t="str">
         <v>Lutry-Lavaux II F4</v>
       </c>
-      <c r="J66" t="str">
+      <c r="K66" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="B67">
         <v>361826</v>
       </c>
-      <c r="B67" t="str">
-        <v>H</v>
-      </c>
       <c r="C67" t="str">
+        <v>H</v>
+      </c>
+      <c r="D67" t="str">
         <v>4L</v>
       </c>
-      <c r="D67" t="str">
+      <c r="E67" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E67" t="str">
+      <c r="F67" t="str">
         <v>mar.</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>45720.854166666664</v>
       </c>
-      <c r="G67" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H67" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I67" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I67" t="str">
+      <c r="J67" t="str">
         <v>Sugnens-Cugy II M4</v>
       </c>
-      <c r="J67" t="str">
+      <c r="K67" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="B68">
         <v>361952</v>
       </c>
-      <c r="B68" t="str">
-        <v>F</v>
-      </c>
       <c r="C68" t="str">
+        <v>F</v>
+      </c>
+      <c r="D68" t="str">
         <v>U23</v>
       </c>
-      <c r="D68" t="str">
+      <c r="E68" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E68" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F68" s="1">
+      <c r="F68" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G68" s="1">
         <v>45723.80208332176</v>
       </c>
-      <c r="G68" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H68" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I68" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I68" t="str">
+      <c r="J68" t="str">
         <v>La Côte U23F2</v>
       </c>
-      <c r="J68" t="str">
+      <c r="K68" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
+      <c r="B69">
         <v>353396</v>
       </c>
-      <c r="B69" t="str">
-        <v>H</v>
-      </c>
       <c r="C69" t="str">
-        <v>1L</v>
+        <v>H</v>
       </c>
       <c r="D69" t="str">
         <v>1L</v>
       </c>
       <c r="E69" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F69" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F69" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G69" s="1">
         <v>45723.854166666664</v>
       </c>
-      <c r="G69" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H69" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I69" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J69" t="str">
         <v>VBC Servette Star-Onex</v>
       </c>
-      <c r="J69" t="str">
+      <c r="K69" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="B70">
         <v>361632</v>
       </c>
-      <c r="B70" t="str">
-        <v>H</v>
-      </c>
       <c r="C70" t="str">
+        <v>H</v>
+      </c>
+      <c r="D70" t="str">
         <v>2L</v>
       </c>
-      <c r="D70" t="str">
+      <c r="E70" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E70" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="F70" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G70" s="1">
         <v>45723.875</v>
       </c>
-      <c r="G70" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H70" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I70" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I70" t="str">
+      <c r="J70" t="str">
         <v>Les Cèdres M2</v>
       </c>
-      <c r="J70" t="str">
+      <c r="K70" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="B71">
         <v>362086</v>
       </c>
-      <c r="B71" t="str">
-        <v>F</v>
-      </c>
       <c r="C71" t="str">
+        <v>F</v>
+      </c>
+      <c r="D71" t="str">
         <v>U20</v>
       </c>
-      <c r="D71" t="str">
+      <c r="E71" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E71" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="F71" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G71" s="1">
         <v>45730.80208332176</v>
       </c>
-      <c r="G71" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H71" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I71" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I71" t="str">
+      <c r="J71" t="str">
         <v>La Tour U20F</v>
       </c>
-      <c r="J71" t="str">
+      <c r="K71" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="B72">
         <v>361233</v>
       </c>
-      <c r="B72" t="str">
-        <v>F</v>
-      </c>
       <c r="C72" t="str">
+        <v>F</v>
+      </c>
+      <c r="D72" t="str">
         <v>2L</v>
       </c>
-      <c r="D72" t="str">
+      <c r="E72" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E72" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="F72" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G72" s="1">
         <v>45730.854166666664</v>
       </c>
-      <c r="G72" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H72" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I72" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I72" t="str">
+      <c r="J72" t="str">
         <v>La Côte I F2</v>
       </c>
-      <c r="J72" t="str">
+      <c r="K72" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="B73">
         <v>361414</v>
       </c>
-      <c r="B73" t="str">
-        <v>F</v>
-      </c>
       <c r="C73" t="str">
+        <v>F</v>
+      </c>
+      <c r="D73" t="str">
         <v>4L</v>
       </c>
-      <c r="D73" t="str">
+      <c r="E73" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E73" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F73" s="1">
+      <c r="F73" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G73" s="1">
         <v>45730.875</v>
       </c>
-      <c r="G73" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H73" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I73" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I73" t="str">
+      <c r="J73" t="str">
         <v>BOPP F4</v>
       </c>
-      <c r="J73" t="str">
+      <c r="K73" t="str">
         <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
     </row>
